--- a/resources/schedule/schedule-summer-camp.xlsx
+++ b/resources/schedule/schedule-summer-camp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glorialiu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\viax-summer-2018\resources\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E84DEB33-1AA6-B940-8370-4FEEA9E92EC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="28800" windowHeight="16164"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEDULE" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
   <si>
     <t>city-experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,44 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tools
--Sketch(35)
--Marvel(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:45-10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-10:45 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:45-11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:30-12:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:15-13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30-17:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:45-18:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13:40-16:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1059,13 +1020,83 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:45-09:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish experience prototypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:50-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-11:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:15-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write up what you learned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30-12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools (Sketch, Modao)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-14:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-Fi Prototype Lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:15-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build 1 Low-Fi Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing AI UIs Lecture  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test with 3 users
+45 - test
+15 - report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1378,6 +1409,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,26 +1734,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="36"/>
-    <col min="6" max="6" width="1.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="1.81640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="36"/>
+    <col min="6" max="6" width="1.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.81640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1">
+    <row r="1" spans="1:8" ht="64.05" customHeight="1">
       <c r="A1" s="33">
         <v>1</v>
       </c>
@@ -1894,7 +1925,7 @@
       <c r="C12" s="36"/>
       <c r="F12" s="35"/>
     </row>
-    <row r="13" spans="1:8" ht="64" customHeight="1">
+    <row r="13" spans="1:8" ht="64.05" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="34" t="s">
         <v>22</v>
@@ -1947,8 +1978,8 @@
         <v>11</v>
       </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="41" t="s">
-        <v>181</v>
+      <c r="G16" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>141</v>
@@ -1963,7 +1994,7 @@
         <v>141</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="41"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1978,7 +2009,7 @@
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>41</v>
@@ -1994,7 +2025,7 @@
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>168</v>
@@ -2010,7 +2041,7 @@
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>169</v>
@@ -2028,7 +2059,7 @@
       <c r="C22" s="36"/>
       <c r="F22" s="35"/>
     </row>
-    <row r="23" spans="1:9" ht="64" customHeight="1">
+    <row r="23" spans="1:9" ht="64.05" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
         <v>33</v>
@@ -2066,10 +2097,10 @@
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2082,13 +2113,13 @@
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2101,10 +2132,10 @@
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2117,10 +2148,10 @@
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2133,10 +2164,10 @@
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>40</v>
+        <v>183</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2149,13 +2180,13 @@
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48">
+    <row r="31" spans="1:9" ht="45">
       <c r="A31" s="33"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -2165,13 +2196,13 @@
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="3" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="33"/>
       <c r="B32" s="3" t="s">
         <v>48</v>
@@ -2181,13 +2212,13 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="3" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="64">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60">
       <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>49</v>
@@ -2197,10 +2228,10 @@
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2209,10 +2240,10 @@
       <c r="C34" s="36"/>
       <c r="F34" s="35"/>
       <c r="G34" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2221,7 +2252,7 @@
       <c r="C35" s="36"/>
       <c r="F35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="64" customHeight="1">
+    <row r="36" spans="1:8" ht="64.05" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>50</v>
@@ -2311,7 +2342,7 @@
       <c r="C45" s="36"/>
       <c r="F45" s="35"/>
     </row>
-    <row r="46" spans="1:8" ht="64" customHeight="1">
+    <row r="46" spans="1:8" ht="64.05" customHeight="1">
       <c r="A46" s="33"/>
       <c r="B46" s="34" t="s">
         <v>63</v>
@@ -2359,7 +2390,7 @@
       </c>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:6" ht="32">
+    <row r="51" spans="1:6" ht="30">
       <c r="A51" s="33"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
@@ -2425,24 +2456,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="10.81640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="60.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
@@ -2471,7 +2502,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47">
+    <row r="2" spans="1:8" ht="45.6">
       <c r="A2" s="29" t="s">
         <v>131</v>
       </c>
@@ -2495,7 +2526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47">
+    <row r="3" spans="1:8" ht="45.6">
       <c r="A3" s="16" t="s">
         <v>125</v>
       </c>
@@ -2521,7 +2552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47">
+    <row r="4" spans="1:8" ht="45.6">
       <c r="A4" s="16" t="s">
         <v>127</v>
       </c>
@@ -2545,7 +2576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31">
+    <row r="5" spans="1:8" ht="30.6">
       <c r="A5" s="19" t="s">
         <v>133</v>
       </c>
@@ -2571,7 +2602,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="47">
+    <row r="6" spans="1:8" ht="45.6">
       <c r="A6" s="12" t="s">
         <v>134</v>
       </c>
@@ -2595,7 +2626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47">
+    <row r="7" spans="1:8" ht="45.6">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
@@ -2619,7 +2650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="47">
+    <row r="8" spans="1:8" ht="45.6">
       <c r="A8" s="16" t="s">
         <v>126</v>
       </c>
@@ -2641,7 +2672,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47">
+    <row r="9" spans="1:8" ht="45.6">
       <c r="A9" s="12" t="s">
         <v>128</v>
       </c>
@@ -2667,7 +2698,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47">
+    <row r="10" spans="1:8" ht="45.6">
       <c r="A10" s="12" t="s">
         <v>129</v>
       </c>
@@ -2691,7 +2722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47">
+    <row r="11" spans="1:8" ht="45.6">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
@@ -2715,7 +2746,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47">
+    <row r="12" spans="1:8" ht="45.6">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -2739,7 +2770,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="47">
+    <row r="13" spans="1:8" ht="45.6">
       <c r="A13" s="29" t="s">
         <v>146</v>
       </c>
@@ -2761,7 +2792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31">
+    <row r="14" spans="1:8" ht="30.6">
       <c r="A14" s="19" t="s">
         <v>130</v>
       </c>
@@ -2793,23 +2824,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47">
-      <c r="A1" s="38">
+    <row r="1" spans="1:6" ht="45.6">
+      <c r="A1" s="39">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2828,8 +2859,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47">
-      <c r="A2" s="38"/>
+    <row r="2" spans="1:6" ht="45.6">
+      <c r="A2" s="39"/>
       <c r="B2" s="14" t="s">
         <v>135</v>
       </c>
@@ -2846,8 +2877,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:6" ht="45.6">
+      <c r="A3" s="39"/>
       <c r="B3" s="16" t="s">
         <v>125</v>
       </c>
@@ -2864,8 +2895,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:6" ht="45.6">
+      <c r="A4" s="39"/>
       <c r="B4" s="12" t="s">
         <v>132</v>
       </c>
@@ -2882,9 +2913,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1"/>
-    <row r="6" spans="1:6" ht="47">
-      <c r="A6" s="40">
+    <row r="5" spans="1:6" ht="31.95" customHeight="1"/>
+    <row r="6" spans="1:6" ht="45.6">
+      <c r="A6" s="41">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2903,8 +2934,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="47">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:6" ht="45.6">
+      <c r="A7" s="41"/>
       <c r="B7" s="12" t="s">
         <v>134</v>
       </c>
@@ -2921,8 +2952,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:6" ht="45.6">
+      <c r="A8" s="41"/>
       <c r="B8" s="12" t="s">
         <v>129</v>
       </c>
@@ -2939,8 +2970,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="47">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:6" ht="45.6">
+      <c r="A9" s="41"/>
       <c r="B9" s="16" t="s">
         <v>126</v>
       </c>
@@ -2957,8 +2988,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="47">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:6" ht="45.6">
+      <c r="A10" s="41"/>
       <c r="B10" s="29" t="s">
         <v>161</v>
       </c>
@@ -2978,8 +3009,8 @@
     <row r="11" spans="1:6">
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="47">
-      <c r="A12" s="39">
+    <row r="12" spans="1:6" ht="45.6">
+      <c r="A12" s="40">
         <v>3</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -2998,8 +3029,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:6" ht="45.6">
+      <c r="A13" s="40"/>
       <c r="B13" s="29" t="s">
         <v>147</v>
       </c>
@@ -3016,8 +3047,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:6" ht="45.6">
+      <c r="A14" s="40"/>
       <c r="B14" s="29" t="s">
         <v>146</v>
       </c>
@@ -3034,8 +3065,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:6" ht="45.6">
+      <c r="A15" s="40"/>
       <c r="B15" s="29" t="s">
         <v>160</v>
       </c>
@@ -3065,19 +3096,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" customHeight="1">
+    <row r="1" spans="1:2" ht="31.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3109,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="64">
+    <row r="5" spans="1:2" ht="62.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>

--- a/resources/schedule/schedule-summer-camp.xlsx
+++ b/resources/schedule/schedule-summer-camp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="204">
   <si>
     <t>city-experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,59 +1027,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finish experience prototypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09:50-10:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:30-11:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:15-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Write up what you learned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:30-12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tools (Sketch, Modao)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-13:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:30-14:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low-Fi Prototype Lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:15-16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build 1 Low-Fi Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:00-17:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1090,6 +1046,106 @@
     <t>Test with 3 users
 45 - test
 15 - report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>09:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>-10:15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:15-12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-13:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:15-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-15:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:45-17:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:15-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:20-12:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish experience prototypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 tests &amp; Finish experience prototypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:45-14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:10-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrap-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-Fi Prototype Lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10-16:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build one Low-Fi Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:40-17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,7 +1153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1192,6 +1248,12 @@
       <name val="Helvetica Neue"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1294,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1482,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
@@ -2100,7 +2165,7 @@
         <v>177</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2113,7 +2178,7 @@
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>39</v>
@@ -2132,10 +2197,10 @@
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2148,10 +2213,10 @@
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2163,11 +2228,11 @@
         <v>11</v>
       </c>
       <c r="F29" s="35"/>
-      <c r="G29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>184</v>
+      <c r="G29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2179,11 +2244,11 @@
         <v>78</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>11</v>
+      <c r="G30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45">
@@ -2196,10 +2261,10 @@
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2212,10 +2277,10 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60">
@@ -2228,10 +2293,10 @@
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2240,10 +2305,10 @@
       <c r="C34" s="36"/>
       <c r="F34" s="35"/>
       <c r="G34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2259,6 +2324,10 @@
       </c>
       <c r="C36" s="34"/>
       <c r="F36" s="35"/>
+      <c r="G36" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="33"/>
@@ -2269,6 +2338,12 @@
         <v>57</v>
       </c>
       <c r="F37" s="35"/>
+      <c r="G37" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="33"/>
@@ -2279,6 +2354,12 @@
         <v>11</v>
       </c>
       <c r="F38" s="35"/>
+      <c r="G38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="33"/>
@@ -2289,6 +2370,12 @@
         <v>58</v>
       </c>
       <c r="F39" s="35"/>
+      <c r="G39" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="33"/>
@@ -2299,6 +2386,12 @@
         <v>59</v>
       </c>
       <c r="F40" s="35"/>
+      <c r="G40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="33"/>
@@ -2309,6 +2402,12 @@
         <v>60</v>
       </c>
       <c r="F41" s="35"/>
+      <c r="G41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="33"/>
@@ -2319,6 +2418,12 @@
         <v>61</v>
       </c>
       <c r="F42" s="35"/>
+      <c r="G42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="33"/>
@@ -2329,12 +2434,24 @@
         <v>62</v>
       </c>
       <c r="F43" s="35"/>
+      <c r="G43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="33"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
       <c r="F44" s="35"/>
+      <c r="G44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="33"/>
@@ -2431,7 +2548,8 @@
       <c r="F54" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A54"/>
     <mergeCell ref="B1:C1"/>

--- a/resources/schedule/schedule-summer-camp.xlsx
+++ b/resources/schedule/schedule-summer-camp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\viax-summer-2018\resources\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glorialiu/Documents/GitHub/viax-summer-2018/resources/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C17A913-2061-E846-B424-C4A2AE3A460F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="444" windowWidth="28800" windowHeight="16164"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEDULE" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="199">
   <si>
     <t>city-experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,59 +1028,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finish experience prototypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09:50-10:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:30-11:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:15-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write up what you learned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:30-12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tools (Sketch, Modao)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:30-13:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:30-14:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low-Fi Prototype Lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:15-16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build 1 Low-Fi Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:00-17:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1090,14 +1047,88 @@
     <t>Test with 3 users
 45 - test
 15 - report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 tests &amp; Finish experience prototypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:20-12:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:45-14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:10-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrap-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10-16:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build one Low-Fi Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:40-17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-15:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:45-17:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:15-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>09:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>-10:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1192,6 +1223,12 @@
       <name val="Helvetica Neue"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1294,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,26 +1774,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="175" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.81640625" style="36"/>
-    <col min="6" max="6" width="1.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="40.81640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.81640625" style="3"/>
+    <col min="1" max="1" width="1.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="36"/>
+    <col min="6" max="6" width="1.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.05" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1">
       <c r="A1" s="33">
         <v>1</v>
       </c>
@@ -1925,7 +1965,7 @@
       <c r="C12" s="36"/>
       <c r="F12" s="35"/>
     </row>
-    <row r="13" spans="1:8" ht="64.05" customHeight="1">
+    <row r="13" spans="1:8" ht="64" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="34" t="s">
         <v>22</v>
@@ -2059,7 +2099,7 @@
       <c r="C22" s="36"/>
       <c r="F22" s="35"/>
     </row>
-    <row r="23" spans="1:9" ht="64.05" customHeight="1">
+    <row r="23" spans="1:9" ht="64" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
         <v>33</v>
@@ -2100,7 +2140,7 @@
         <v>177</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2113,7 +2153,7 @@
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>39</v>
@@ -2132,10 +2172,10 @@
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2148,10 +2188,10 @@
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2163,11 +2203,11 @@
         <v>11</v>
       </c>
       <c r="F29" s="35"/>
-      <c r="G29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>184</v>
+      <c r="G29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2179,14 +2219,14 @@
         <v>78</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45">
+      <c r="G30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="48">
       <c r="A31" s="33"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -2196,10 +2236,10 @@
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2212,13 +2252,13 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60">
+        <v>190</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="64">
       <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>49</v>
@@ -2228,10 +2268,10 @@
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2240,10 +2280,10 @@
       <c r="C34" s="36"/>
       <c r="F34" s="35"/>
       <c r="G34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2252,13 +2292,17 @@
       <c r="C35" s="36"/>
       <c r="F35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="64.05" customHeight="1">
+    <row r="36" spans="1:8" ht="64" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="34"/>
       <c r="F36" s="35"/>
+      <c r="G36" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="33"/>
@@ -2269,6 +2313,12 @@
         <v>57</v>
       </c>
       <c r="F37" s="35"/>
+      <c r="G37" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="33"/>
@@ -2279,6 +2329,12 @@
         <v>11</v>
       </c>
       <c r="F38" s="35"/>
+      <c r="G38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="33"/>
@@ -2289,6 +2345,12 @@
         <v>58</v>
       </c>
       <c r="F39" s="35"/>
+      <c r="G39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="33"/>
@@ -2299,6 +2361,12 @@
         <v>59</v>
       </c>
       <c r="F40" s="35"/>
+      <c r="G40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="33"/>
@@ -2309,6 +2377,12 @@
         <v>60</v>
       </c>
       <c r="F41" s="35"/>
+      <c r="G41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="33"/>
@@ -2319,6 +2393,12 @@
         <v>61</v>
       </c>
       <c r="F42" s="35"/>
+      <c r="G42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="33"/>
@@ -2329,12 +2409,24 @@
         <v>62</v>
       </c>
       <c r="F43" s="35"/>
+      <c r="G43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="33"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
       <c r="F44" s="35"/>
+      <c r="G44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="33"/>
@@ -2342,7 +2434,7 @@
       <c r="C45" s="36"/>
       <c r="F45" s="35"/>
     </row>
-    <row r="46" spans="1:8" ht="64.05" customHeight="1">
+    <row r="46" spans="1:8" ht="64" customHeight="1">
       <c r="A46" s="33"/>
       <c r="B46" s="34" t="s">
         <v>63</v>
@@ -2390,7 +2482,7 @@
       </c>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:6" ht="30">
+    <row r="51" spans="1:6" ht="32">
       <c r="A51" s="33"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
@@ -2431,7 +2523,8 @@
       <c r="F54" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A54"/>
     <mergeCell ref="B1:C1"/>
@@ -2456,24 +2549,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="60.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="10.81640625" style="11"/>
+    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
@@ -2502,7 +2595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45.6">
+    <row r="2" spans="1:8" ht="47">
       <c r="A2" s="29" t="s">
         <v>131</v>
       </c>
@@ -2526,7 +2619,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45.6">
+    <row r="3" spans="1:8" ht="47">
       <c r="A3" s="16" t="s">
         <v>125</v>
       </c>
@@ -2552,7 +2645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45.6">
+    <row r="4" spans="1:8" ht="47">
       <c r="A4" s="16" t="s">
         <v>127</v>
       </c>
@@ -2576,7 +2669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30.6">
+    <row r="5" spans="1:8" ht="31">
       <c r="A5" s="19" t="s">
         <v>133</v>
       </c>
@@ -2602,7 +2695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45.6">
+    <row r="6" spans="1:8" ht="47">
       <c r="A6" s="12" t="s">
         <v>134</v>
       </c>
@@ -2626,7 +2719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.6">
+    <row r="7" spans="1:8" ht="47">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
@@ -2650,7 +2743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.6">
+    <row r="8" spans="1:8" ht="47">
       <c r="A8" s="16" t="s">
         <v>126</v>
       </c>
@@ -2672,7 +2765,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45.6">
+    <row r="9" spans="1:8" ht="47">
       <c r="A9" s="12" t="s">
         <v>128</v>
       </c>
@@ -2698,7 +2791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45.6">
+    <row r="10" spans="1:8" ht="47">
       <c r="A10" s="12" t="s">
         <v>129</v>
       </c>
@@ -2722,7 +2815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45.6">
+    <row r="11" spans="1:8" ht="47">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
@@ -2746,7 +2839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.6">
+    <row r="12" spans="1:8" ht="47">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -2770,7 +2863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45.6">
+    <row r="13" spans="1:8" ht="47">
       <c r="A13" s="29" t="s">
         <v>146</v>
       </c>
@@ -2792,7 +2885,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30.6">
+    <row r="14" spans="1:8" ht="31">
       <c r="A14" s="19" t="s">
         <v>130</v>
       </c>
@@ -2824,22 +2917,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.6">
+    <row r="1" spans="1:6" ht="47">
       <c r="A1" s="39">
         <v>1</v>
       </c>
@@ -2859,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45.6">
+    <row r="2" spans="1:6" ht="47">
       <c r="A2" s="39"/>
       <c r="B2" s="14" t="s">
         <v>135</v>
@@ -2877,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.6">
+    <row r="3" spans="1:6" ht="47">
       <c r="A3" s="39"/>
       <c r="B3" s="16" t="s">
         <v>125</v>
@@ -2895,7 +2988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45.6">
+    <row r="4" spans="1:6" ht="47">
       <c r="A4" s="39"/>
       <c r="B4" s="12" t="s">
         <v>132</v>
@@ -2913,8 +3006,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.95" customHeight="1"/>
-    <row r="6" spans="1:6" ht="45.6">
+    <row r="5" spans="1:6" ht="32" customHeight="1"/>
+    <row r="6" spans="1:6" ht="47">
       <c r="A6" s="41">
         <v>2</v>
       </c>
@@ -2934,7 +3027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45.6">
+    <row r="7" spans="1:6" ht="47">
       <c r="A7" s="41"/>
       <c r="B7" s="12" t="s">
         <v>134</v>
@@ -2952,7 +3045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.6">
+    <row r="8" spans="1:6" ht="47">
       <c r="A8" s="41"/>
       <c r="B8" s="12" t="s">
         <v>129</v>
@@ -2970,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45.6">
+    <row r="9" spans="1:6" ht="47">
       <c r="A9" s="41"/>
       <c r="B9" s="16" t="s">
         <v>126</v>
@@ -2988,7 +3081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45.6">
+    <row r="10" spans="1:6" ht="47">
       <c r="A10" s="41"/>
       <c r="B10" s="29" t="s">
         <v>161</v>
@@ -3009,7 +3102,7 @@
     <row r="11" spans="1:6">
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="45.6">
+    <row r="12" spans="1:6" ht="47">
       <c r="A12" s="40">
         <v>3</v>
       </c>
@@ -3029,7 +3122,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45.6">
+    <row r="13" spans="1:6" ht="47">
       <c r="A13" s="40"/>
       <c r="B13" s="29" t="s">
         <v>147</v>
@@ -3047,7 +3140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45.6">
+    <row r="14" spans="1:6" ht="47">
       <c r="A14" s="40"/>
       <c r="B14" s="29" t="s">
         <v>146</v>
@@ -3065,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45.6">
+    <row r="15" spans="1:6" ht="47">
       <c r="A15" s="40"/>
       <c r="B15" s="29" t="s">
         <v>160</v>
@@ -3096,19 +3189,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.95" customHeight="1">
+    <row r="1" spans="1:2" ht="32" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3140,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="62.4">
+    <row r="5" spans="1:2" ht="64">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>

--- a/resources/schedule/schedule-summer-camp.xlsx
+++ b/resources/schedule/schedule-summer-camp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glorialiu/Documents/GitHub/viax-summer-2018/resources/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C17A913-2061-E846-B424-C4A2AE3A460F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9C6897A-C4BD-6B45-A8C0-C3A184936844}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="200">
   <si>
     <t>city-experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1107,7 +1107,7 @@
   </si>
   <si>
     <r>
-      <t>09:30</t>
+      <t>09:45</t>
     </r>
     <r>
       <rPr>
@@ -1115,12 +1115,16 @@
         <color theme="1"/>
         <rFont val="Helvetica Neue Light"/>
       </rPr>
-      <t>-10:00</t>
+      <t>-10:15</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:00-12:30</t>
+    <t>10:15-12:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:-14:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,15 +1432,18 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1457,9 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="175" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1786,7 +1790,7 @@
     <col min="1" max="1" width="1.83203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="36"/>
+    <col min="4" max="5" width="10.83203125" style="37"/>
     <col min="6" max="6" width="1.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="40.83203125" style="3" customWidth="1"/>
@@ -1794,30 +1798,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64" customHeight="1">
-      <c r="A1" s="33">
+      <c r="A1" s="35">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="F1" s="35">
+      <c r="C1" s="34"/>
+      <c r="F1" s="36">
         <v>1</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="33"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="8" t="s">
         <v>144</v>
       </c>
@@ -1826,14 +1830,14 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="8" t="s">
         <v>145</v>
       </c>
@@ -1842,14 +1846,14 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1858,14 +1862,14 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="9" t="s">
         <v>162</v>
       </c>
@@ -1874,14 +1878,14 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8" t="s">
         <v>163</v>
       </c>
@@ -1890,14 +1894,14 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="8" t="s">
         <v>164</v>
       </c>
@@ -1906,14 +1910,14 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="8" t="s">
         <v>165</v>
       </c>
@@ -1922,14 +1926,14 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1938,14 +1942,14 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="3" t="s">
         <v>166</v>
       </c>
@@ -1954,38 +1958,38 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="33"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="F11" s="35"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="33"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="37"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34" t="s">
+      <c r="C13" s="33"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="3" t="s">
         <v>167</v>
       </c>
@@ -1994,14 +1998,14 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="7" t="s">
         <v>170</v>
       </c>
@@ -2010,15 +2014,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="38" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="39" t="s">
         <v>172</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2026,28 +2030,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="3" t="s">
         <v>173</v>
       </c>
@@ -2056,14 +2060,14 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="3" t="s">
         <v>174</v>
       </c>
@@ -2072,14 +2076,14 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="3" t="s">
         <v>175</v>
       </c>
@@ -2088,38 +2092,38 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="36"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="36"/>
-      <c r="F22" s="35"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="37"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="64" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="34" t="s">
+      <c r="C23" s="33"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="3" t="s">
         <v>79</v>
       </c>
@@ -2128,14 +2132,14 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="33"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="3" t="s">
         <v>177</v>
       </c>
@@ -2144,14 +2148,14 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="33"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="3" t="s">
         <v>178</v>
       </c>
@@ -2163,14 +2167,14 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="33"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="3" t="s">
         <v>183</v>
       </c>
@@ -2179,14 +2183,14 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="3" t="s">
         <v>185</v>
       </c>
@@ -2195,14 +2199,14 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="7" t="s">
         <v>186</v>
       </c>
@@ -2211,14 +2215,14 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="33"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="3" t="s">
         <v>187</v>
       </c>
@@ -2227,14 +2231,14 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="48">
-      <c r="A31" s="33"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2243,14 +2247,14 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="3" t="s">
         <v>190</v>
       </c>
@@ -2259,14 +2263,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="64">
-      <c r="A33" s="33"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="3" t="s">
         <v>192</v>
       </c>
@@ -2275,10 +2279,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36"/>
-      <c r="F34" s="35"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
@@ -2287,33 +2291,33 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="33"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="36"/>
-      <c r="F35" s="35"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="64" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="34" t="s">
+      <c r="C36" s="33"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="33"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="42" t="s">
+      <c r="F37" s="36"/>
+      <c r="G37" s="32" t="s">
         <v>197</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -2321,14 +2325,14 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="33"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="35"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="3" t="s">
         <v>198</v>
       </c>
@@ -2337,46 +2341,46 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="33"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="35"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="33"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="35"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="3" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="3" t="s">
         <v>47</v>
       </c>
@@ -2385,14 +2389,14 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="33"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="3" t="s">
         <v>194</v>
       </c>
@@ -2401,14 +2405,14 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="33"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="3" t="s">
         <v>195</v>
       </c>
@@ -2417,10 +2421,10 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="33"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="36"/>
-      <c r="F44" s="35"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="37"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="3" t="s">
         <v>196</v>
       </c>
@@ -2429,101 +2433,102 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="33"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="36"/>
-      <c r="F45" s="35"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="37"/>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:8" ht="64" customHeight="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="F46" s="35"/>
+      <c r="C46" s="33"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="33"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="35"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="33"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="35"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="33"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="33"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="33"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="35"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="33"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="33"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="35"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="33"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="35"/>
+      <c r="F54" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A54"/>
@@ -2540,7 +2545,6 @@
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2933,7 +2937,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47">
-      <c r="A1" s="39">
+      <c r="A1" s="40">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2953,7 +2957,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="47">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="14" t="s">
         <v>135</v>
       </c>
@@ -2971,7 +2975,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="47">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="16" t="s">
         <v>125</v>
       </c>
@@ -2989,7 +2993,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="47">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="12" t="s">
         <v>132</v>
       </c>
@@ -3008,7 +3012,7 @@
     </row>
     <row r="5" spans="1:6" ht="32" customHeight="1"/>
     <row r="6" spans="1:6" ht="47">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3028,7 +3032,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="47">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="12" t="s">
         <v>134</v>
       </c>
@@ -3046,7 +3050,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="47">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="12" t="s">
         <v>129</v>
       </c>
@@ -3064,7 +3068,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="47">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="16" t="s">
         <v>126</v>
       </c>
@@ -3082,7 +3086,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="47">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="29" t="s">
         <v>161</v>
       </c>
@@ -3103,7 +3107,7 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="47">
-      <c r="A12" s="40">
+      <c r="A12" s="41">
         <v>3</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -3123,7 +3127,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="47">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="29" t="s">
         <v>147</v>
       </c>
@@ -3141,7 +3145,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="47">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="29" t="s">
         <v>146</v>
       </c>
@@ -3159,7 +3163,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="47">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="29" t="s">
         <v>160</v>
       </c>

--- a/resources/schedule/schedule-summer-camp.xlsx
+++ b/resources/schedule/schedule-summer-camp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glorialiu/Documents/GitHub/viax-summer-2018/resources/schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\viax-summer-2018\resources\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9C6897A-C4BD-6B45-A8C0-C3A184936844}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="28800" windowHeight="16164"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEDULE" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="209">
   <si>
     <t>city-experience</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1094,14 +1093,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:30-15:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:45-17:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17:15-18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,14 +1115,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:-14:30</t>
+    <t>14:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-16:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:15-17:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:15-13:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:15-14:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Talk: Future UI Lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:45-15:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -1435,6 +1470,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1452,9 +1490,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,50 +1813,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="175" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="37"/>
-    <col min="6" max="6" width="1.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="1.81640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="38"/>
+    <col min="6" max="6" width="1.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.81640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1">
-      <c r="A1" s="35">
+    <row r="1" spans="1:8" ht="64.05" customHeight="1">
+      <c r="A1" s="36">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="F1" s="36">
+      <c r="C1" s="35"/>
+      <c r="F1" s="37">
         <v>1</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="8" t="s">
         <v>144</v>
       </c>
@@ -1830,14 +1865,14 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="8" t="s">
         <v>145</v>
       </c>
@@ -1846,14 +1881,14 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1862,14 +1897,14 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>162</v>
       </c>
@@ -1878,14 +1913,14 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="8" t="s">
         <v>163</v>
       </c>
@@ -1894,14 +1929,14 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="8" t="s">
         <v>164</v>
       </c>
@@ -1910,14 +1945,14 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="8" t="s">
         <v>165</v>
       </c>
@@ -1926,14 +1961,14 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1942,14 +1977,14 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="3" t="s">
         <v>166</v>
       </c>
@@ -1958,38 +1993,38 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="37"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="64" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="33" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="64.05" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="33" t="s">
+      <c r="C13" s="34"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="3" t="s">
         <v>167</v>
       </c>
@@ -1998,14 +2033,14 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="7" t="s">
         <v>170</v>
       </c>
@@ -2014,15 +2049,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="39" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="33" t="s">
         <v>172</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2030,28 +2065,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="3" t="s">
         <v>173</v>
       </c>
@@ -2060,14 +2095,14 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="3" t="s">
         <v>174</v>
       </c>
@@ -2076,14 +2111,14 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="3" t="s">
         <v>175</v>
       </c>
@@ -2092,38 +2127,38 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37"/>
-      <c r="F21" s="36"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="37"/>
-      <c r="F22" s="36"/>
-    </row>
-    <row r="23" spans="1:9" ht="64" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="33" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" ht="64.05" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="3" t="s">
         <v>79</v>
       </c>
@@ -2132,14 +2167,14 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="3" t="s">
         <v>177</v>
       </c>
@@ -2148,14 +2183,14 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="3" t="s">
         <v>178</v>
       </c>
@@ -2167,14 +2202,14 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="3" t="s">
         <v>183</v>
       </c>
@@ -2183,14 +2218,14 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="3" t="s">
         <v>185</v>
       </c>
@@ -2199,14 +2234,14 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="7" t="s">
         <v>186</v>
       </c>
@@ -2215,14 +2250,14 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="3" t="s">
         <v>187</v>
       </c>
@@ -2230,15 +2265,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="36"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2247,14 +2282,14 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="3" t="s">
         <v>190</v>
       </c>
@@ -2262,15 +2297,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="64">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:8" ht="60">
+      <c r="A33" s="36"/>
       <c r="B33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="3" t="s">
         <v>192</v>
       </c>
@@ -2279,10 +2314,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="35"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="37"/>
-      <c r="F34" s="36"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="38"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
@@ -2291,64 +2326,64 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="35"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="37"/>
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" ht="64" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="33" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38"/>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" ht="64.05" customHeight="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="33" t="s">
+      <c r="C36" s="34"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="36"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="36"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="7" t="s">
         <v>53</v>
       </c>
@@ -2357,177 +2392,225 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="36"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="36"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="3" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="36"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="35"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="36"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="35"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="37"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="38"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="35"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="37"/>
-      <c r="F45" s="36"/>
-    </row>
-    <row r="46" spans="1:8" ht="64" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="33" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="38"/>
+      <c r="F45" s="37"/>
+    </row>
+    <row r="46" spans="1:8" ht="64.05" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="F46" s="36"/>
+      <c r="C46" s="34"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="35"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="35"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="35"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="36"/>
       <c r="B49" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="35"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
+      <c r="A50" s="36"/>
       <c r="B50" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="36"/>
-    </row>
-    <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="35"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30">
+      <c r="A51" s="36"/>
       <c r="B51" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="36"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="35"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="36"/>
       <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="36"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="35"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="36"/>
       <c r="B53" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="36"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="35"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="36"/>
       <c r="B54" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="36"/>
+      <c r="F54" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G1:H1"/>
@@ -2544,7 +2627,6 @@
     <mergeCell ref="B34:C35"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,24 +2635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="10.81640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="60.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
@@ -2599,7 +2681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47">
+    <row r="2" spans="1:8" ht="45.6">
       <c r="A2" s="29" t="s">
         <v>131</v>
       </c>
@@ -2623,7 +2705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47">
+    <row r="3" spans="1:8" ht="45.6">
       <c r="A3" s="16" t="s">
         <v>125</v>
       </c>
@@ -2649,7 +2731,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47">
+    <row r="4" spans="1:8" ht="45.6">
       <c r="A4" s="16" t="s">
         <v>127</v>
       </c>
@@ -2673,7 +2755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31">
+    <row r="5" spans="1:8" ht="30.6">
       <c r="A5" s="19" t="s">
         <v>133</v>
       </c>
@@ -2699,7 +2781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="47">
+    <row r="6" spans="1:8" ht="45.6">
       <c r="A6" s="12" t="s">
         <v>134</v>
       </c>
@@ -2723,7 +2805,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47">
+    <row r="7" spans="1:8" ht="45.6">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
@@ -2747,7 +2829,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="47">
+    <row r="8" spans="1:8" ht="45.6">
       <c r="A8" s="16" t="s">
         <v>126</v>
       </c>
@@ -2769,7 +2851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47">
+    <row r="9" spans="1:8" ht="45.6">
       <c r="A9" s="12" t="s">
         <v>128</v>
       </c>
@@ -2795,7 +2877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47">
+    <row r="10" spans="1:8" ht="45.6">
       <c r="A10" s="12" t="s">
         <v>129</v>
       </c>
@@ -2819,7 +2901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47">
+    <row r="11" spans="1:8" ht="45.6">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
@@ -2843,7 +2925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47">
+    <row r="12" spans="1:8" ht="45.6">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -2867,7 +2949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="47">
+    <row r="13" spans="1:8" ht="45.6">
       <c r="A13" s="29" t="s">
         <v>146</v>
       </c>
@@ -2889,7 +2971,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31">
+    <row r="14" spans="1:8" ht="30.6">
       <c r="A14" s="19" t="s">
         <v>130</v>
       </c>
@@ -2921,22 +3003,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47">
+    <row r="1" spans="1:6" ht="45.6">
       <c r="A1" s="40">
         <v>1</v>
       </c>
@@ -2956,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47">
+    <row r="2" spans="1:6" ht="45.6">
       <c r="A2" s="40"/>
       <c r="B2" s="14" t="s">
         <v>135</v>
@@ -2974,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47">
+    <row r="3" spans="1:6" ht="45.6">
       <c r="A3" s="40"/>
       <c r="B3" s="16" t="s">
         <v>125</v>
@@ -2992,7 +3074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47">
+    <row r="4" spans="1:6" ht="45.6">
       <c r="A4" s="40"/>
       <c r="B4" s="12" t="s">
         <v>132</v>
@@ -3010,8 +3092,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1"/>
-    <row r="6" spans="1:6" ht="47">
+    <row r="5" spans="1:6" ht="31.95" customHeight="1"/>
+    <row r="6" spans="1:6" ht="45.6">
       <c r="A6" s="42">
         <v>2</v>
       </c>
@@ -3031,7 +3113,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="47">
+    <row r="7" spans="1:6" ht="45.6">
       <c r="A7" s="42"/>
       <c r="B7" s="12" t="s">
         <v>134</v>
@@ -3049,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47">
+    <row r="8" spans="1:6" ht="45.6">
       <c r="A8" s="42"/>
       <c r="B8" s="12" t="s">
         <v>129</v>
@@ -3067,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="47">
+    <row r="9" spans="1:6" ht="45.6">
       <c r="A9" s="42"/>
       <c r="B9" s="16" t="s">
         <v>126</v>
@@ -3085,7 +3167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="47">
+    <row r="10" spans="1:6" ht="45.6">
       <c r="A10" s="42"/>
       <c r="B10" s="29" t="s">
         <v>161</v>
@@ -3106,7 +3188,7 @@
     <row r="11" spans="1:6">
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="47">
+    <row r="12" spans="1:6" ht="45.6">
       <c r="A12" s="41">
         <v>3</v>
       </c>
@@ -3126,7 +3208,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47">
+    <row r="13" spans="1:6" ht="45.6">
       <c r="A13" s="41"/>
       <c r="B13" s="29" t="s">
         <v>147</v>
@@ -3144,7 +3226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47">
+    <row r="14" spans="1:6" ht="45.6">
       <c r="A14" s="41"/>
       <c r="B14" s="29" t="s">
         <v>146</v>
@@ -3162,7 +3244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47">
+    <row r="15" spans="1:6" ht="45.6">
       <c r="A15" s="41"/>
       <c r="B15" s="29" t="s">
         <v>160</v>
@@ -3193,19 +3275,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" customHeight="1">
+    <row r="1" spans="1:2" ht="31.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="64">
+    <row r="5" spans="1:2" ht="62.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
